--- a/assets/EIT Clean.xlsx
+++ b/assets/EIT Clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FastStreamTech\eit\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9EE70BB1-50DC-4C1E-9326-7F32D6CD0382}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{32BC13E4-0F2C-461A-BE80-ED0D6A2940E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{1B5858F0-8F53-4625-910F-D178A0952197}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -51,12 +51,6 @@
     <t>no_electrodes</t>
   </si>
   <si>
-    <t>res_min</t>
-  </si>
-  <si>
-    <t>res_max</t>
-  </si>
-  <si>
     <t>Shreyas</t>
   </si>
   <si>
@@ -82,6 +76,102 @@
   </si>
   <si>
     <t>Kiran</t>
+  </si>
+  <si>
+    <t>res_min_1</t>
+  </si>
+  <si>
+    <t>res_max_1</t>
+  </si>
+  <si>
+    <t>res_min_2</t>
+  </si>
+  <si>
+    <t>res_max_2</t>
+  </si>
+  <si>
+    <t>res_min_3</t>
+  </si>
+  <si>
+    <t>res_max_3</t>
+  </si>
+  <si>
+    <t>res_min_4</t>
+  </si>
+  <si>
+    <t>res_max_4</t>
+  </si>
+  <si>
+    <t>res_min_5</t>
+  </si>
+  <si>
+    <t>res_max_5</t>
+  </si>
+  <si>
+    <t>res_min_6</t>
+  </si>
+  <si>
+    <t>res_max_6</t>
+  </si>
+  <si>
+    <t>res_min_7</t>
+  </si>
+  <si>
+    <t>res_max_7</t>
+  </si>
+  <si>
+    <t>res_min_8</t>
+  </si>
+  <si>
+    <t>res_max_8</t>
+  </si>
+  <si>
+    <t>res_min_1_2</t>
+  </si>
+  <si>
+    <t>res_max_1_2</t>
+  </si>
+  <si>
+    <t>res_min_2_3</t>
+  </si>
+  <si>
+    <t>res_max_2_3</t>
+  </si>
+  <si>
+    <t>res_min_3_4</t>
+  </si>
+  <si>
+    <t>res_max_3_4</t>
+  </si>
+  <si>
+    <t>res_min_4_5</t>
+  </si>
+  <si>
+    <t>res_max_4_5</t>
+  </si>
+  <si>
+    <t>res_min_5_6</t>
+  </si>
+  <si>
+    <t>res_max_5_6</t>
+  </si>
+  <si>
+    <t>res_min_6_7</t>
+  </si>
+  <si>
+    <t>res_max_6_7</t>
+  </si>
+  <si>
+    <t>res_min_7_8</t>
+  </si>
+  <si>
+    <t>res_max_7_8</t>
+  </si>
+  <si>
+    <t>res_min_8_1</t>
+  </si>
+  <si>
+    <t>res_max_8_1</t>
   </si>
 </sst>
 </file>
@@ -125,13 +215,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -447,738 +533,809 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2618D275-D784-46EC-B0B3-C370B50906FE}">
-  <dimension ref="A1:AN8"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2">
-        <v>8</v>
-      </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA1" s="3">
-        <v>2</v>
-      </c>
-      <c r="AB1" s="3">
-        <v>3</v>
-      </c>
-      <c r="AC1" s="3">
-        <v>3</v>
-      </c>
-      <c r="AD1" s="3">
-        <v>4</v>
-      </c>
-      <c r="AE1" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF1" s="3">
-        <v>5</v>
-      </c>
-      <c r="AG1" s="3">
-        <v>5</v>
-      </c>
-      <c r="AH1" s="3">
-        <v>6</v>
-      </c>
-      <c r="AI1" s="3">
-        <v>6</v>
-      </c>
-      <c r="AJ1" s="3">
-        <v>7</v>
-      </c>
-      <c r="AK1" s="3">
-        <v>7</v>
-      </c>
-      <c r="AL1" s="3">
-        <v>8</v>
-      </c>
-      <c r="AM1" s="3">
-        <v>8</v>
-      </c>
-      <c r="AN1" s="3">
-        <v>1</v>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="G2">
+        <v>85</v>
+      </c>
+      <c r="H2">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I2">
+        <v>0.05</v>
+      </c>
+      <c r="J2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K2">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>18</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>9</v>
+      <c r="O2">
+        <v>70</v>
+      </c>
+      <c r="P2">
+        <v>72</v>
+      </c>
+      <c r="Q2">
+        <v>87</v>
+      </c>
+      <c r="R2">
+        <v>88</v>
+      </c>
+      <c r="S2">
+        <v>137</v>
+      </c>
+      <c r="T2">
+        <v>140</v>
+      </c>
+      <c r="U2">
+        <v>67</v>
+      </c>
+      <c r="V2">
+        <v>69</v>
+      </c>
+      <c r="W2">
+        <v>84</v>
+      </c>
+      <c r="X2">
+        <v>85</v>
+      </c>
+      <c r="Y2">
+        <v>47</v>
+      </c>
+      <c r="Z2">
+        <v>49</v>
+      </c>
+      <c r="AA2">
+        <v>52</v>
+      </c>
+      <c r="AB2">
+        <v>53</v>
+      </c>
+      <c r="AC2">
+        <v>50</v>
+      </c>
+      <c r="AD2">
+        <v>51</v>
+      </c>
+      <c r="AE2">
+        <v>65</v>
+      </c>
+      <c r="AF2">
+        <v>72</v>
+      </c>
+      <c r="AG2">
+        <v>109</v>
+      </c>
+      <c r="AH2">
+        <v>110</v>
+      </c>
+      <c r="AI2">
+        <v>77</v>
+      </c>
+      <c r="AJ2">
+        <v>82</v>
+      </c>
+      <c r="AK2">
+        <v>42</v>
+      </c>
+      <c r="AL2">
+        <v>43</v>
+      </c>
+      <c r="AM2">
+        <v>21</v>
+      </c>
+      <c r="AN2">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H3">
         <v>8</v>
       </c>
       <c r="I3">
-        <v>0.05</v>
+        <v>117</v>
       </c>
       <c r="J3">
-        <v>5.8000000000000003E-2</v>
+        <v>122</v>
       </c>
       <c r="K3">
+        <v>116</v>
+      </c>
+      <c r="L3">
+        <v>138</v>
+      </c>
+      <c r="M3">
+        <v>95</v>
+      </c>
+      <c r="N3">
+        <v>103</v>
+      </c>
+      <c r="O3">
+        <v>97</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <v>102</v>
+      </c>
+      <c r="R3">
+        <v>104</v>
+      </c>
+      <c r="S3">
+        <v>106</v>
+      </c>
+      <c r="T3">
+        <v>109</v>
+      </c>
+      <c r="U3">
+        <v>108</v>
+      </c>
+      <c r="V3">
+        <v>113</v>
+      </c>
+      <c r="W3">
+        <v>140</v>
+      </c>
+      <c r="X3">
+        <v>160</v>
+      </c>
+      <c r="Y3">
+        <v>107</v>
+      </c>
+      <c r="Z3">
+        <v>111</v>
+      </c>
+      <c r="AA3">
+        <v>16</v>
+      </c>
+      <c r="AB3">
         <v>17</v>
       </c>
-      <c r="L3">
-        <v>18</v>
-      </c>
-      <c r="M3">
+      <c r="AC3">
+        <v>38</v>
+      </c>
+      <c r="AD3">
+        <v>42</v>
+      </c>
+      <c r="AE3">
         <v>8</v>
       </c>
-      <c r="N3">
+      <c r="AF3">
         <v>9</v>
       </c>
-      <c r="O3">
-        <v>70</v>
-      </c>
-      <c r="P3">
-        <v>72</v>
-      </c>
-      <c r="Q3">
-        <v>87</v>
-      </c>
-      <c r="R3">
-        <v>88</v>
-      </c>
-      <c r="S3">
-        <v>137</v>
-      </c>
-      <c r="T3">
-        <v>140</v>
-      </c>
-      <c r="U3">
-        <v>67</v>
-      </c>
-      <c r="V3">
-        <v>69</v>
-      </c>
-      <c r="W3">
-        <v>84</v>
-      </c>
-      <c r="X3">
-        <v>85</v>
-      </c>
-      <c r="Y3">
-        <v>47</v>
-      </c>
-      <c r="Z3">
-        <v>49</v>
-      </c>
-      <c r="AA3">
-        <v>52</v>
-      </c>
-      <c r="AB3">
-        <v>53</v>
-      </c>
-      <c r="AC3">
-        <v>50</v>
-      </c>
-      <c r="AD3">
-        <v>51</v>
-      </c>
-      <c r="AE3">
-        <v>65</v>
-      </c>
-      <c r="AF3">
-        <v>72</v>
-      </c>
       <c r="AG3">
-        <v>109</v>
+        <v>4.5</v>
       </c>
       <c r="AH3">
-        <v>110</v>
+        <v>4.5</v>
       </c>
       <c r="AI3">
-        <v>77</v>
+        <v>3.5</v>
       </c>
       <c r="AJ3">
-        <v>82</v>
+        <v>3.5</v>
       </c>
       <c r="AK3">
-        <v>42</v>
+        <v>0.8</v>
       </c>
       <c r="AL3">
-        <v>43</v>
+        <v>0.8</v>
       </c>
       <c r="AM3">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="AN3">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H4">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>117</v>
+        <v>1.8</v>
       </c>
       <c r="J4">
-        <v>122</v>
+        <v>2.8</v>
       </c>
       <c r="K4">
-        <v>116</v>
+        <v>9.6</v>
       </c>
       <c r="L4">
-        <v>138</v>
+        <v>9.6</v>
       </c>
       <c r="M4">
-        <v>95</v>
+        <v>7.5</v>
       </c>
       <c r="N4">
-        <v>103</v>
+        <v>7.8</v>
       </c>
       <c r="O4">
-        <v>97</v>
+        <v>6.5</v>
       </c>
       <c r="P4">
-        <v>100</v>
+        <v>6.5</v>
       </c>
       <c r="Q4">
-        <v>102</v>
+        <v>3.7</v>
       </c>
       <c r="R4">
-        <v>104</v>
+        <v>3.7</v>
       </c>
       <c r="S4">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="T4">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="U4">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="V4">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="W4">
-        <v>140</v>
+        <v>7.5</v>
       </c>
       <c r="X4">
-        <v>160</v>
+        <v>7.5</v>
       </c>
       <c r="Y4">
-        <v>107</v>
+        <v>19.5</v>
       </c>
       <c r="Z4">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="AA4">
-        <v>16</v>
+        <v>2.6</v>
       </c>
       <c r="AB4">
-        <v>17</v>
+        <v>2.6</v>
       </c>
       <c r="AC4">
-        <v>38</v>
+        <v>4.5</v>
       </c>
       <c r="AD4">
-        <v>42</v>
+        <v>4.5</v>
       </c>
       <c r="AE4">
-        <v>8</v>
+        <v>1.9</v>
       </c>
       <c r="AF4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AG4">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="AH4">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="AI4">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="AJ4">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK4">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="AL4">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="AM4">
-        <v>93</v>
+        <v>3.3</v>
       </c>
       <c r="AN4">
-        <v>96</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <v>8</v>
       </c>
       <c r="I5">
-        <v>1.8</v>
+        <v>0.05</v>
       </c>
       <c r="J5">
-        <v>2.8</v>
+        <v>0.05</v>
       </c>
       <c r="K5">
-        <v>9.6</v>
-      </c>
-      <c r="L5">
-        <v>9.6</v>
-      </c>
-      <c r="M5">
-        <v>7.5</v>
-      </c>
-      <c r="N5">
-        <v>7.8</v>
-      </c>
-      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>10.52</v>
+      </c>
+      <c r="N5" s="2">
+        <v>10.52</v>
+      </c>
+      <c r="O5" s="2">
+        <v>5.32</v>
+      </c>
+      <c r="P5" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>7</v>
+      </c>
+      <c r="R5" s="2">
+        <v>8</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="W5">
+        <v>3.8</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>15.5</v>
+      </c>
+      <c r="AB5">
+        <v>16.2</v>
+      </c>
+      <c r="AC5">
+        <v>0.9</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>4.3</v>
+      </c>
+      <c r="AF5">
+        <v>4.3</v>
+      </c>
+      <c r="AG5">
+        <v>1.9</v>
+      </c>
+      <c r="AH5">
+        <v>1.9</v>
+      </c>
+      <c r="AI5">
+        <v>0.5</v>
+      </c>
+      <c r="AJ5">
+        <v>0.5</v>
+      </c>
+      <c r="AK5">
+        <v>0.65</v>
+      </c>
+      <c r="AL5">
+        <v>0.65</v>
+      </c>
+      <c r="AM5">
         <v>6.5</v>
       </c>
-      <c r="P5">
-        <v>6.5</v>
-      </c>
-      <c r="Q5">
-        <v>3.7</v>
-      </c>
-      <c r="R5">
-        <v>3.7</v>
-      </c>
-      <c r="S5">
-        <v>5</v>
-      </c>
-      <c r="T5">
-        <v>5</v>
-      </c>
-      <c r="U5">
-        <v>6</v>
-      </c>
-      <c r="V5">
-        <v>6</v>
-      </c>
-      <c r="W5">
-        <v>7.5</v>
-      </c>
-      <c r="X5">
-        <v>7.5</v>
-      </c>
-      <c r="Y5">
-        <v>19.5</v>
-      </c>
-      <c r="Z5">
-        <v>20</v>
-      </c>
-      <c r="AA5">
-        <v>2.6</v>
-      </c>
-      <c r="AB5">
-        <v>2.6</v>
-      </c>
-      <c r="AC5">
-        <v>4.5</v>
-      </c>
-      <c r="AD5">
-        <v>4.5</v>
-      </c>
-      <c r="AE5">
-        <v>1.9</v>
-      </c>
-      <c r="AF5">
-        <v>2</v>
-      </c>
-      <c r="AG5">
-        <v>1.6</v>
-      </c>
-      <c r="AH5">
-        <v>1.6</v>
-      </c>
-      <c r="AI5">
-        <v>9.5</v>
-      </c>
-      <c r="AJ5">
-        <v>9.5</v>
-      </c>
-      <c r="AK5">
-        <v>5.3</v>
-      </c>
-      <c r="AL5">
-        <v>5.3</v>
-      </c>
-      <c r="AM5">
-        <v>3.3</v>
-      </c>
       <c r="AN5">
-        <v>3.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H6">
         <v>8</v>
       </c>
       <c r="I6">
-        <v>0.05</v>
+        <v>19</v>
       </c>
       <c r="J6">
-        <v>0.05</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>4.5</v>
-      </c>
-      <c r="L6" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="M6" s="4">
-        <v>10.52</v>
-      </c>
-      <c r="N6" s="4">
-        <v>10.52</v>
-      </c>
-      <c r="O6" s="4">
-        <v>5.32</v>
-      </c>
-      <c r="P6" s="4">
-        <v>5.9</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>7</v>
-      </c>
-      <c r="R6" s="4">
-        <v>8</v>
-      </c>
-      <c r="S6" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="T6" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="U6" s="4">
-        <v>1.49</v>
-      </c>
-      <c r="V6" s="4">
-        <v>1.49</v>
+        <v>62</v>
+      </c>
+      <c r="L6">
+        <v>63</v>
+      </c>
+      <c r="M6">
+        <v>40</v>
+      </c>
+      <c r="N6">
+        <v>41</v>
+      </c>
+      <c r="O6">
+        <v>33</v>
+      </c>
+      <c r="P6">
+        <v>34</v>
+      </c>
+      <c r="Q6">
+        <v>33</v>
+      </c>
+      <c r="R6">
+        <v>34</v>
+      </c>
+      <c r="S6">
+        <v>32</v>
+      </c>
+      <c r="T6">
+        <v>33</v>
+      </c>
+      <c r="U6">
+        <v>20</v>
+      </c>
+      <c r="V6">
+        <v>20</v>
       </c>
       <c r="W6">
-        <v>3.8</v>
+        <v>55</v>
       </c>
       <c r="X6">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="AA6">
-        <v>15.5</v>
+        <v>85</v>
       </c>
       <c r="AB6">
-        <v>16.2</v>
+        <v>86</v>
       </c>
       <c r="AC6">
-        <v>0.9</v>
+        <v>38</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="AE6">
-        <v>4.3</v>
+        <v>67</v>
       </c>
       <c r="AF6">
-        <v>4.3</v>
+        <v>68</v>
       </c>
       <c r="AG6">
-        <v>1.9</v>
+        <v>24</v>
       </c>
       <c r="AH6">
-        <v>1.9</v>
+        <v>25</v>
       </c>
       <c r="AI6">
-        <v>0.5</v>
+        <v>84</v>
       </c>
       <c r="AJ6">
-        <v>0.5</v>
+        <v>85</v>
       </c>
       <c r="AK6">
-        <v>0.65</v>
+        <v>80</v>
       </c>
       <c r="AL6">
-        <v>0.65</v>
+        <v>90</v>
       </c>
       <c r="AM6">
-        <v>6.5</v>
+        <v>80</v>
       </c>
       <c r="AN6">
-        <v>6.8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H7">
         <v>8</v>
@@ -1190,229 +1347,97 @@
         <v>20</v>
       </c>
       <c r="K7">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="L7">
-        <v>63</v>
+        <v>34.5</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="N7">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="O7">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="P7">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="Q7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S7">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="T7">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="U7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="V7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="W7">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="X7">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="Y7">
-        <v>58</v>
+        <v>6.5</v>
       </c>
       <c r="Z7">
-        <v>59</v>
+        <v>6.5</v>
       </c>
       <c r="AA7">
-        <v>85</v>
+        <v>6.5</v>
       </c>
       <c r="AB7">
-        <v>86</v>
+        <v>6.5</v>
       </c>
       <c r="AC7">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD7">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE7">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AF7">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AG7">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AH7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AI7">
-        <v>84</v>
+        <v>1.2</v>
       </c>
       <c r="AJ7">
-        <v>85</v>
+        <v>1.3</v>
       </c>
       <c r="AK7">
-        <v>80</v>
+        <v>0.2</v>
       </c>
       <c r="AL7">
-        <v>90</v>
+        <v>0.2</v>
       </c>
       <c r="AM7">
-        <v>80</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AN7">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>60</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-      <c r="I8">
-        <v>19</v>
-      </c>
-      <c r="J8">
-        <v>20</v>
-      </c>
-      <c r="K8">
-        <v>34</v>
-      </c>
-      <c r="L8">
-        <v>34.5</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>8</v>
-      </c>
-      <c r="O8">
-        <v>15</v>
-      </c>
-      <c r="P8">
-        <v>17</v>
-      </c>
-      <c r="Q8">
-        <v>30</v>
-      </c>
-      <c r="R8">
-        <v>32</v>
-      </c>
-      <c r="S8">
-        <v>22</v>
-      </c>
-      <c r="T8">
-        <v>22</v>
-      </c>
-      <c r="U8">
-        <v>22</v>
-      </c>
-      <c r="V8">
-        <v>22</v>
-      </c>
-      <c r="W8">
-        <v>22</v>
-      </c>
-      <c r="X8">
-        <v>22</v>
-      </c>
-      <c r="Y8">
-        <v>6.5</v>
-      </c>
-      <c r="Z8">
-        <v>6.5</v>
-      </c>
-      <c r="AA8">
-        <v>6.5</v>
-      </c>
-      <c r="AB8">
-        <v>6.5</v>
-      </c>
-      <c r="AC8">
-        <v>75</v>
-      </c>
-      <c r="AD8">
-        <v>76</v>
-      </c>
-      <c r="AE8">
-        <v>80</v>
-      </c>
-      <c r="AF8">
-        <v>83</v>
-      </c>
-      <c r="AG8">
-        <v>9</v>
-      </c>
-      <c r="AH8">
-        <v>10</v>
-      </c>
-      <c r="AI8">
-        <v>1.2</v>
-      </c>
-      <c r="AJ8">
-        <v>1.3</v>
-      </c>
-      <c r="AK8">
-        <v>0.2</v>
-      </c>
-      <c r="AL8">
-        <v>0.2</v>
-      </c>
-      <c r="AM8">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AN8">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/assets/EIT Clean.xlsx
+++ b/assets/EIT Clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FastStreamTech\eit\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{32BC13E4-0F2C-461A-BE80-ED0D6A2940E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{89A5F6CD-AF04-41D1-92D5-B0360C1E0FE6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{1B5858F0-8F53-4625-910F-D178A0952197}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
-    <t xml:space="preserve">name </t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>res_max_8_1</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2618D275-D784-46EC-B0B3-C370B50906FE}">
   <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,141 +585,141 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -829,19 +829,19 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -951,19 +951,19 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>65</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1073,19 +1073,19 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1195,19 +1195,19 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>30</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1317,19 +1317,19 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>22</v>
       </c>
       <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
       <c r="F7">
         <v>1</v>
